--- a/BLOCKA.xlsx
+++ b/BLOCKA.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$49</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -252,10 +249,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
@@ -370,7 +363,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:L1"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1234,7 +1227,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1242,6 +1234,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BLOCKA.xlsx
+++ b/BLOCKA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
   <si>
     <t xml:space="preserve">word</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t xml:space="preserve">session_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_of_first_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stimulus_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stimulus_off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti_off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iti_dur</t>
   </si>
   <si>
     <t xml:space="preserve">blue</t>
@@ -199,7 +217,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,6 +227,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,23 +251,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -360,16 +365,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,821 +430,839 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
+      <c r="A25" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
